--- a/predictions/confirmed/c1_train_predictions.xlsx
+++ b/predictions/confirmed/c1_train_predictions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\Praca dyplomowa\Excel\confirmed\predictions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\Praca dyplomowa\Excel\excel-prognozowanie\predictions\confirmed\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>date</t>
   </si>
@@ -71,6 +71,15 @@
   <si>
     <t>górna granica*</t>
   </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>prognoza</t>
+  </si>
+  <si>
+    <t>wartość rzeczywista</t>
+  </si>
 </sst>
 </file>
 
@@ -86,15 +95,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -102,22 +117,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -6251,7 +6313,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -6410,6 +6472,744 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Porównanie prognoz</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> z wartościami rzeczywistymi liczb zakażeń dla 1 fali</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'c1_predictions'!$B$191</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wartość rzeczywista</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'c1_predictions'!$A$192:$A$221</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44059</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'c1_predictions'!$B$192:$B$221</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>811</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>887</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>691</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2812-41B3-8171-EB2D3504D72B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'c1_predictions'!$C$191</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>prognoza</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'c1_predictions'!$A$192:$A$221</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44059</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'c1_predictions'!$C$192:$C$221</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>849.03401136390062</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>727.21568642853219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>791.4896158553347</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>617.30280203753739</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>781.09545452243742</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>761.82275908567067</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>727.35424865421987</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>970.37972672121498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>831.17135434622264</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>904.62064127737551</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>705.56797121622947</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>892.74267232546788</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>870.71872342898951</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>831.32969687737261</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1109.0480226326322</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>949.9671048021155</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1033.9015677921</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>806.43334221265502</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1020.3279718179882</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>995.16001715455468</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>950.14805135552467</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1267.5117659494451</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1085.7214182422711</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1181.6378576220116</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>921.69764364564446</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1166.1265771653602</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1137.3657974832963</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1085.9281956314708</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1448.5968350413555</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1240.8551965709012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2812-41B3-8171-EB2D3504D72B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1209660703"/>
+        <c:axId val="1209654047"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1209660703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1209654047"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1209654047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1209660703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6451,6 +7251,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7522,6 +8362,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7556,16 +8912,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7584,6 +8940,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7591,36 +8977,50 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:M185" totalsRowShown="0">
   <autoFilter ref="A1:M185"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="date" dataDxfId="11"/>
+    <tableColumn id="1" name="date" dataDxfId="12"/>
     <tableColumn id="2" name="ln(c+1)"/>
-    <tableColumn id="3" name="Prognoza(ln(c+1))" dataDxfId="10">
+    <tableColumn id="3" name="Prognoza(ln(c+1))" dataDxfId="11">
       <calculatedColumnFormula>_xlfn.FORECAST.ETS(A2,$B$2:$B$155,$A$2:$A$155,7,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Dolna granica ufności(ln(c+1))" dataDxfId="9">
+    <tableColumn id="4" name="Dolna granica ufności(ln(c+1))" dataDxfId="10">
       <calculatedColumnFormula>C2-_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Górna granica ufności(ln(c+1))" dataDxfId="8">
+    <tableColumn id="5" name="Górna granica ufności(ln(c+1))" dataDxfId="9">
       <calculatedColumnFormula>C2+_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="exp(ln(c+1))" dataDxfId="7"/>
-    <tableColumn id="7" name="exp(prognoza)" dataDxfId="6">
+    <tableColumn id="6" name="exp(ln(c+1))" dataDxfId="8"/>
+    <tableColumn id="7" name="exp(prognoza)" dataDxfId="7">
       <calculatedColumnFormula>EXP(#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="exp(dolna granica)" dataDxfId="5">
+    <tableColumn id="8" name="exp(dolna granica)" dataDxfId="6">
       <calculatedColumnFormula>EXP(#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="exp(górna granica)" dataDxfId="4">
+    <tableColumn id="9" name="exp(górna granica)" dataDxfId="5">
       <calculatedColumnFormula>EXP(#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="dane*" dataDxfId="3"/>
-    <tableColumn id="11" name="prognoza*" dataDxfId="2">
+    <tableColumn id="10" name="dane*" dataDxfId="4"/>
+    <tableColumn id="11" name="prognoza*" dataDxfId="3">
       <calculatedColumnFormula>G2 - 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="dolna granica*" dataDxfId="1">
+    <tableColumn id="12" name="dolna granica*" dataDxfId="2">
       <calculatedColumnFormula>H2 - 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="górna granica*" dataDxfId="0">
+    <tableColumn id="13" name="górna granica*" dataDxfId="1">
       <calculatedColumnFormula>I2 - 1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A191:C221" totalsRowShown="0">
+  <autoFilter ref="A191:C221"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="data" dataDxfId="0"/>
+    <tableColumn id="2" name="wartość rzeczywista"/>
+    <tableColumn id="3" name="prognoza">
+      <calculatedColumnFormula>K156</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10388,16 +11788,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M185"/>
+  <dimension ref="A1:M221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="H210" sqref="H210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="29.28515625" customWidth="1"/>
     <col min="5" max="5" width="29.5703125" customWidth="1"/>
@@ -13846,15 +15246,15 @@
         <v>44049</v>
       </c>
       <c r="C156" s="3">
-        <f>_xlfn.FORECAST.ETS(A156,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" ref="C156:C185" si="6">_xlfn.FORECAST.ETS(A156,$B$2:$B$155,$A$2:$A$155,7,1)</f>
         <v>6.7452763620531435</v>
       </c>
       <c r="D156" s="4">
-        <f>C156-_xlfn.FORECAST.ETS.CONFINT(A156,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" ref="D156:D185" si="7">C156-_xlfn.FORECAST.ETS.CONFINT(A156,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
         <v>6.1205982984568719</v>
       </c>
       <c r="E156" s="4">
-        <f>C156+_xlfn.FORECAST.ETS.CONFINT(A156,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" ref="E156:E185" si="8">C156+_xlfn.FORECAST.ETS.CONFINT(A156,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
         <v>7.3699544256494152</v>
       </c>
       <c r="F156" s="5"/>
@@ -13872,15 +15272,15 @@
       </c>
       <c r="J156" s="5"/>
       <c r="K156" s="5">
-        <f>G156 - 1</f>
+        <f t="shared" ref="K156:K185" si="9">G156 - 1</f>
         <v>849.03401136390062</v>
       </c>
       <c r="L156" s="5">
-        <f>H156 - 1</f>
+        <f t="shared" ref="L156:L185" si="10">H156 - 1</f>
         <v>454.13692077248851</v>
       </c>
       <c r="M156" s="5">
-        <f>I156 - 1</f>
+        <f t="shared" ref="M156:M185" si="11">I156 - 1</f>
         <v>1586.5614293145698</v>
       </c>
     </row>
@@ -13889,15 +15289,15 @@
         <v>44050</v>
       </c>
       <c r="C157" s="3">
-        <f>_xlfn.FORECAST.ETS(A157,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.590597276883301</v>
       </c>
       <c r="D157" s="4">
-        <f>C157-_xlfn.FORECAST.ETS.CONFINT(A157,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>5.8089994446550648</v>
       </c>
       <c r="E157" s="4">
-        <f>C157+_xlfn.FORECAST.ETS.CONFINT(A157,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>7.3721951091115372</v>
       </c>
       <c r="F157" s="5"/>
@@ -13915,15 +15315,15 @@
       </c>
       <c r="J157" s="5"/>
       <c r="K157" s="5">
-        <f>G157 - 1</f>
+        <f t="shared" si="9"/>
         <v>727.21568642853219</v>
       </c>
       <c r="L157" s="5">
-        <f>H157 - 1</f>
+        <f t="shared" si="10"/>
         <v>332.28548821440751</v>
       </c>
       <c r="M157" s="5">
-        <f>I157 - 1</f>
+        <f t="shared" si="11"/>
         <v>1590.1226402375783</v>
       </c>
     </row>
@@ -13932,15 +15332,15 @@
         <v>44051</v>
       </c>
       <c r="C158" s="3">
-        <f>_xlfn.FORECAST.ETS(A158,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.6751794026439306</v>
       </c>
       <c r="D158" s="4">
-        <f>C158-_xlfn.FORECAST.ETS.CONFINT(A158,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>5.7629541318431858</v>
       </c>
       <c r="E158" s="4">
-        <f>C158+_xlfn.FORECAST.ETS.CONFINT(A158,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>7.5874046734446754</v>
       </c>
       <c r="F158" s="5"/>
@@ -13958,15 +15358,15 @@
       </c>
       <c r="J158" s="5"/>
       <c r="K158" s="5">
-        <f>G158 - 1</f>
+        <f t="shared" si="9"/>
         <v>791.4896158553347</v>
       </c>
       <c r="L158" s="5">
-        <f>H158 - 1</f>
+        <f t="shared" si="10"/>
         <v>317.28720381902127</v>
       </c>
       <c r="M158" s="5">
-        <f>I158 - 1</f>
+        <f t="shared" si="11"/>
         <v>1972.185801071791</v>
       </c>
     </row>
@@ -13975,15 +15375,15 @@
         <v>44052</v>
       </c>
       <c r="C159" s="3">
-        <f>_xlfn.FORECAST.ETS(A159,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.426978308395654</v>
       </c>
       <c r="D159" s="4">
-        <f>C159-_xlfn.FORECAST.ETS.CONFINT(A159,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>5.4003319312946605</v>
       </c>
       <c r="E159" s="4">
-        <f>C159+_xlfn.FORECAST.ETS.CONFINT(A159,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>7.4536246854966475</v>
       </c>
       <c r="F159" s="5"/>
@@ -14001,15 +15401,15 @@
       </c>
       <c r="J159" s="5"/>
       <c r="K159" s="5">
-        <f>G159 - 1</f>
+        <f t="shared" si="9"/>
         <v>617.30280203753739</v>
       </c>
       <c r="L159" s="5">
-        <f>H159 - 1</f>
+        <f t="shared" si="10"/>
         <v>220.47992012101415</v>
       </c>
       <c r="M159" s="5">
-        <f>I159 - 1</f>
+        <f t="shared" si="11"/>
         <v>1725.1084201158583</v>
       </c>
     </row>
@@ -14018,15 +15418,15 @@
         <v>44053</v>
       </c>
       <c r="C160" s="3">
-        <f>_xlfn.FORECAST.ETS(A160,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.6619767977027307</v>
       </c>
       <c r="D160" s="4">
-        <f>C160-_xlfn.FORECAST.ETS.CONFINT(A160,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>5.5321805910483821</v>
       </c>
       <c r="E160" s="4">
-        <f>C160+_xlfn.FORECAST.ETS.CONFINT(A160,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>7.7917730043570792</v>
       </c>
       <c r="F160" s="5"/>
@@ -14044,15 +15444,15 @@
       </c>
       <c r="J160" s="5"/>
       <c r="K160" s="5">
-        <f>G160 - 1</f>
+        <f t="shared" si="9"/>
         <v>781.09545452243742</v>
       </c>
       <c r="L160" s="5">
-        <f>H160 - 1</f>
+        <f t="shared" si="10"/>
         <v>251.69433368405393</v>
       </c>
       <c r="M160" s="5">
-        <f>I160 - 1</f>
+        <f t="shared" si="11"/>
         <v>2419.6055239427678</v>
       </c>
     </row>
@@ -14061,15 +15461,15 @@
         <v>44054</v>
       </c>
       <c r="C161" s="3">
-        <f>_xlfn.FORECAST.ETS(A161,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.6370257095235301</v>
       </c>
       <c r="D161" s="4">
-        <f>C161-_xlfn.FORECAST.ETS.CONFINT(A161,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>5.4124989519552296</v>
       </c>
       <c r="E161" s="4">
-        <f>C161+_xlfn.FORECAST.ETS.CONFINT(A161,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>7.8615524670918306</v>
       </c>
       <c r="F161" s="5"/>
@@ -14087,15 +15487,15 @@
       </c>
       <c r="J161" s="5"/>
       <c r="K161" s="5">
-        <f>G161 - 1</f>
+        <f t="shared" si="9"/>
         <v>761.82275908567067</v>
       </c>
       <c r="L161" s="5">
-        <f>H161 - 1</f>
+        <f t="shared" si="10"/>
         <v>223.19113111873131</v>
       </c>
       <c r="M161" s="5">
-        <f>I161 - 1</f>
+        <f t="shared" si="11"/>
         <v>2594.5467501116377</v>
       </c>
     </row>
@@ -14104,15 +15504,15 @@
         <v>44055</v>
       </c>
       <c r="C162" s="3">
-        <f>_xlfn.FORECAST.ETS(A162,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.5907875351369807</v>
       </c>
       <c r="D162" s="4">
-        <f>C162-_xlfn.FORECAST.ETS.CONFINT(A162,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>5.2781251648564487</v>
       </c>
       <c r="E162" s="4">
-        <f>C162+_xlfn.FORECAST.ETS.CONFINT(A162,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>7.9034499054175127</v>
       </c>
       <c r="F162" s="5"/>
@@ -14130,15 +15530,15 @@
       </c>
       <c r="J162" s="5"/>
       <c r="K162" s="5">
-        <f>G162 - 1</f>
+        <f t="shared" si="9"/>
         <v>727.35424865421987</v>
       </c>
       <c r="L162" s="5">
-        <f>H162 - 1</f>
+        <f t="shared" si="10"/>
         <v>195.00205911349869</v>
       </c>
       <c r="M162" s="5">
-        <f>I162 - 1</f>
+        <f t="shared" si="11"/>
         <v>2705.6037669811271</v>
       </c>
     </row>
@@ -14147,15 +15547,15 @@
         <v>44056</v>
       </c>
       <c r="C163" s="3">
-        <f>_xlfn.FORECAST.ETS(A163,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.8787174595283407</v>
       </c>
       <c r="D163" s="4">
-        <f>C163-_xlfn.FORECAST.ETS.CONFINT(A163,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>5.4830518936152348</v>
       </c>
       <c r="E163" s="4">
-        <f>C163+_xlfn.FORECAST.ETS.CONFINT(A163,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>8.2743830254414465</v>
       </c>
       <c r="F163" s="5"/>
@@ -14173,15 +15573,15 @@
       </c>
       <c r="J163" s="5"/>
       <c r="K163" s="5">
-        <f>G163 - 1</f>
+        <f t="shared" si="9"/>
         <v>970.37972672121498</v>
       </c>
       <c r="L163" s="5">
-        <f>H163 - 1</f>
+        <f t="shared" si="10"/>
         <v>239.57981211895594</v>
       </c>
       <c r="M163" s="5">
-        <f>I163 - 1</f>
+        <f t="shared" si="11"/>
         <v>3921.1020466107311</v>
       </c>
     </row>
@@ -14190,15 +15590,15 @@
         <v>44057</v>
       </c>
       <c r="C164" s="3">
-        <f>_xlfn.FORECAST.ETS(A164,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.7240383743584982</v>
       </c>
       <c r="D164" s="4">
-        <f>C164-_xlfn.FORECAST.ETS.CONFINT(A164,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>5.2500362558387872</v>
       </c>
       <c r="E164" s="4">
-        <f>C164+_xlfn.FORECAST.ETS.CONFINT(A164,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>8.1980404928782082</v>
       </c>
       <c r="F164" s="5"/>
@@ -14216,15 +15616,15 @@
       </c>
       <c r="J164" s="5"/>
       <c r="K164" s="5">
-        <f>G164 - 1</f>
+        <f t="shared" si="9"/>
         <v>831.17135434622264</v>
       </c>
       <c r="L164" s="5">
-        <f>H164 - 1</f>
+        <f t="shared" si="10"/>
         <v>189.57317772378735</v>
       </c>
       <c r="M164" s="5">
-        <f>I164 - 1</f>
+        <f t="shared" si="11"/>
         <v>3632.8228247321022</v>
       </c>
     </row>
@@ -14233,15 +15633,15 @@
         <v>44058</v>
       </c>
       <c r="C165" s="3">
-        <f>_xlfn.FORECAST.ETS(A165,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.8086205001191278</v>
       </c>
       <c r="D165" s="4">
-        <f>C165-_xlfn.FORECAST.ETS.CONFINT(A165,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>5.260048620230652</v>
       </c>
       <c r="E165" s="4">
-        <f>C165+_xlfn.FORECAST.ETS.CONFINT(A165,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>8.3571923800076036</v>
       </c>
       <c r="F165" s="5"/>
@@ -14259,15 +15659,15 @@
       </c>
       <c r="J165" s="5"/>
       <c r="K165" s="5">
-        <f>G165 - 1</f>
+        <f t="shared" si="9"/>
         <v>904.62064127737551</v>
       </c>
       <c r="L165" s="5">
-        <f>H165 - 1</f>
+        <f t="shared" si="10"/>
         <v>191.49085001925854</v>
       </c>
       <c r="M165" s="5">
-        <f>I165 - 1</f>
+        <f t="shared" si="11"/>
         <v>4259.715487648321</v>
       </c>
     </row>
@@ -14276,15 +15676,15 @@
         <v>44059</v>
       </c>
       <c r="C166" s="3">
-        <f>_xlfn.FORECAST.ETS(A166,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.5604194058708512</v>
       </c>
       <c r="D166" s="4">
-        <f>C166-_xlfn.FORECAST.ETS.CONFINT(A166,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.9405240334275833</v>
       </c>
       <c r="E166" s="4">
-        <f>C166+_xlfn.FORECAST.ETS.CONFINT(A166,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>8.1803147783141199</v>
       </c>
       <c r="F166" s="5"/>
@@ -14302,15 +15702,15 @@
       </c>
       <c r="J166" s="5"/>
       <c r="K166" s="5">
-        <f>G166 - 1</f>
+        <f t="shared" si="9"/>
         <v>705.56797121622947</v>
       </c>
       <c r="L166" s="5">
-        <f>H166 - 1</f>
+        <f t="shared" si="10"/>
         <v>138.84351303753309</v>
       </c>
       <c r="M166" s="5">
-        <f>I166 - 1</f>
+        <f t="shared" si="11"/>
         <v>3568.9782357056961</v>
       </c>
     </row>
@@ -14319,15 +15719,15 @@
         <v>44060</v>
       </c>
       <c r="C167" s="3">
-        <f>_xlfn.FORECAST.ETS(A167,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.7954178951779278</v>
       </c>
       <c r="D167" s="4">
-        <f>C167-_xlfn.FORECAST.ETS.CONFINT(A167,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>5.1070336150771798</v>
       </c>
       <c r="E167" s="4">
-        <f>C167+_xlfn.FORECAST.ETS.CONFINT(A167,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>8.4838021752786759</v>
       </c>
       <c r="F167" s="5"/>
@@ -14345,15 +15745,15 @@
       </c>
       <c r="J167" s="5"/>
       <c r="K167" s="5">
-        <f>G167 - 1</f>
+        <f t="shared" si="9"/>
         <v>892.74267232546788</v>
       </c>
       <c r="L167" s="5">
-        <f>H167 - 1</f>
+        <f t="shared" si="10"/>
         <v>164.17964101380559</v>
       </c>
       <c r="M167" s="5">
-        <f>I167 - 1</f>
+        <f t="shared" si="11"/>
         <v>4834.8015517705817</v>
       </c>
     </row>
@@ -14362,15 +15762,15 @@
         <v>44061</v>
       </c>
       <c r="C168" s="3">
-        <f>_xlfn.FORECAST.ETS(A168,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.7704668069987282</v>
       </c>
       <c r="D168" s="4">
-        <f>C168-_xlfn.FORECAST.ETS.CONFINT(A168,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>5.0160959720521046</v>
       </c>
       <c r="E168" s="4">
-        <f>C168+_xlfn.FORECAST.ETS.CONFINT(A168,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>8.5248376419453518</v>
       </c>
       <c r="F168" s="5"/>
@@ -14388,15 +15788,15 @@
       </c>
       <c r="J168" s="5"/>
       <c r="K168" s="5">
-        <f>G168 - 1</f>
+        <f t="shared" si="9"/>
         <v>870.71872342898951</v>
       </c>
       <c r="L168" s="5">
-        <f>H168 - 1</f>
+        <f t="shared" si="10"/>
         <v>149.82134219502043</v>
       </c>
       <c r="M168" s="5">
-        <f>I168 - 1</f>
+        <f t="shared" si="11"/>
         <v>5037.3687196874444</v>
       </c>
     </row>
@@ -14405,15 +15805,15 @@
         <v>44062</v>
       </c>
       <c r="C169" s="3">
-        <f>_xlfn.FORECAST.ETS(A169,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.7242286326121787</v>
       </c>
       <c r="D169" s="4">
-        <f>C169-_xlfn.FORECAST.ETS.CONFINT(A169,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.906100901739439</v>
       </c>
       <c r="E169" s="4">
-        <f>C169+_xlfn.FORECAST.ETS.CONFINT(A169,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>8.5423563634849184</v>
       </c>
       <c r="F169" s="5"/>
@@ -14431,15 +15831,15 @@
       </c>
       <c r="J169" s="5"/>
       <c r="K169" s="5">
-        <f>G169 - 1</f>
+        <f t="shared" si="9"/>
         <v>831.32969687737261</v>
       </c>
       <c r="L169" s="5">
-        <f>H169 - 1</f>
+        <f t="shared" si="10"/>
         <v>134.111572725705</v>
       </c>
       <c r="M169" s="5">
-        <f>I169 - 1</f>
+        <f t="shared" si="11"/>
         <v>5126.4121848200411</v>
       </c>
     </row>
@@ -14448,15 +15848,15 @@
         <v>44063</v>
       </c>
       <c r="C170" s="3">
-        <f>_xlfn.FORECAST.ETS(A170,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>7.0121585570035379</v>
       </c>
       <c r="D170" s="4">
-        <f>C170-_xlfn.FORECAST.ETS.CONFINT(A170,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>5.1321176142483003</v>
       </c>
       <c r="E170" s="4">
-        <f>C170+_xlfn.FORECAST.ETS.CONFINT(A170,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>8.8921994997587763</v>
       </c>
       <c r="F170" s="5"/>
@@ -14474,15 +15874,15 @@
       </c>
       <c r="J170" s="5"/>
       <c r="K170" s="5">
-        <f>G170 - 1</f>
+        <f t="shared" si="9"/>
         <v>1109.0480226326322</v>
       </c>
       <c r="L170" s="5">
-        <f>H170 - 1</f>
+        <f t="shared" si="10"/>
         <v>168.37541033080001</v>
       </c>
       <c r="M170" s="5">
-        <f>I170 - 1</f>
+        <f t="shared" si="11"/>
         <v>7274.0029661569342</v>
       </c>
     </row>
@@ -14491,15 +15891,15 @@
         <v>44064</v>
       </c>
       <c r="C171" s="3">
-        <f>_xlfn.FORECAST.ETS(A171,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.8574794718336953</v>
       </c>
       <c r="D171" s="4">
-        <f>C171-_xlfn.FORECAST.ETS.CONFINT(A171,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.9175002330005704</v>
       </c>
       <c r="E171" s="4">
-        <f>C171+_xlfn.FORECAST.ETS.CONFINT(A171,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>8.7974587106668203</v>
       </c>
       <c r="F171" s="5"/>
@@ -14517,15 +15917,15 @@
       </c>
       <c r="J171" s="5"/>
       <c r="K171" s="5">
-        <f>G171 - 1</f>
+        <f t="shared" si="9"/>
         <v>949.9671048021155</v>
       </c>
       <c r="L171" s="5">
-        <f>H171 - 1</f>
+        <f t="shared" si="10"/>
         <v>135.66056627210045</v>
       </c>
       <c r="M171" s="5">
-        <f>I171 - 1</f>
+        <f t="shared" si="11"/>
         <v>6616.4058770919964</v>
       </c>
     </row>
@@ -14534,15 +15934,15 @@
         <v>44065</v>
       </c>
       <c r="C172" s="3">
-        <f>_xlfn.FORECAST.ETS(A172,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.942061597594325</v>
       </c>
       <c r="D172" s="4">
-        <f>C172-_xlfn.FORECAST.ETS.CONFINT(A172,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.9437915559972563</v>
       </c>
       <c r="E172" s="4">
-        <f>C172+_xlfn.FORECAST.ETS.CONFINT(A172,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>8.9403316391913936</v>
       </c>
       <c r="F172" s="5"/>
@@ -14560,15 +15960,15 @@
       </c>
       <c r="J172" s="5"/>
       <c r="K172" s="5">
-        <f>G172 - 1</f>
+        <f t="shared" si="9"/>
         <v>1033.9015677921</v>
       </c>
       <c r="L172" s="5">
-        <f>H172 - 1</f>
+        <f t="shared" si="10"/>
         <v>139.30120222025525</v>
       </c>
       <c r="M172" s="5">
-        <f>I172 - 1</f>
+        <f t="shared" si="11"/>
         <v>7632.7282793712484</v>
       </c>
     </row>
@@ -14577,15 +15977,15 @@
         <v>44066</v>
       </c>
       <c r="C173" s="3">
-        <f>_xlfn.FORECAST.ETS(A173,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.6938605033460483</v>
       </c>
       <c r="D173" s="4">
-        <f>C173-_xlfn.FORECAST.ETS.CONFINT(A173,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.6388067660915286</v>
       </c>
       <c r="E173" s="4">
-        <f>C173+_xlfn.FORECAST.ETS.CONFINT(A173,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>8.748914240600568</v>
       </c>
       <c r="F173" s="5"/>
@@ -14603,15 +16003,15 @@
       </c>
       <c r="J173" s="5"/>
       <c r="K173" s="5">
-        <f>G173 - 1</f>
+        <f t="shared" si="9"/>
         <v>806.43334221265502</v>
       </c>
       <c r="L173" s="5">
-        <f>H173 - 1</f>
+        <f t="shared" si="10"/>
         <v>102.42086864099544</v>
       </c>
       <c r="M173" s="5">
-        <f>I173 - 1</f>
+        <f t="shared" si="11"/>
         <v>6302.8399375643012</v>
       </c>
     </row>
@@ -14620,15 +16020,15 @@
         <v>44067</v>
       </c>
       <c r="C174" s="3">
-        <f>_xlfn.FORECAST.ETS(A174,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.928858992653125</v>
       </c>
       <c r="D174" s="4">
-        <f>C174-_xlfn.FORECAST.ETS.CONFINT(A174,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.8184068280383556</v>
       </c>
       <c r="E174" s="4">
-        <f>C174+_xlfn.FORECAST.ETS.CONFINT(A174,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>9.0393111572678944</v>
       </c>
       <c r="F174" s="5"/>
@@ -14646,15 +16046,15 @@
       </c>
       <c r="J174" s="5"/>
       <c r="K174" s="5">
-        <f>G174 - 1</f>
+        <f t="shared" si="9"/>
         <v>1020.3279718179882</v>
       </c>
       <c r="L174" s="5">
-        <f>H174 - 1</f>
+        <f t="shared" si="10"/>
         <v>122.76775031336058</v>
       </c>
       <c r="M174" s="5">
-        <f>I174 - 1</f>
+        <f t="shared" si="11"/>
         <v>8426.9695104488201</v>
       </c>
     </row>
@@ -14663,15 +16063,15 @@
         <v>44068</v>
       </c>
       <c r="C175" s="3">
-        <f>_xlfn.FORECAST.ETS(A175,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.9039079044739253</v>
       </c>
       <c r="D175" s="4">
-        <f>C175-_xlfn.FORECAST.ETS.CONFINT(A175,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.7393360373464066</v>
       </c>
       <c r="E175" s="4">
-        <f>C175+_xlfn.FORECAST.ETS.CONFINT(A175,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>9.068479771601444</v>
       </c>
       <c r="F175" s="5"/>
@@ -14689,15 +16089,15 @@
       </c>
       <c r="J175" s="5"/>
       <c r="K175" s="5">
-        <f>G175 - 1</f>
+        <f t="shared" si="9"/>
         <v>995.16001715455468</v>
       </c>
       <c r="L175" s="5">
-        <f>H175 - 1</f>
+        <f t="shared" si="10"/>
         <v>113.35824686232085</v>
       </c>
       <c r="M175" s="5">
-        <f>I175 - 1</f>
+        <f t="shared" si="11"/>
         <v>8676.4221099424758</v>
       </c>
     </row>
@@ -14706,15 +16106,15 @@
         <v>44069</v>
       </c>
       <c r="C176" s="3">
-        <f>_xlfn.FORECAST.ETS(A176,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.8576697300873759</v>
       </c>
       <c r="D176" s="4">
-        <f>C176-_xlfn.FORECAST.ETS.CONFINT(A176,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.6401630829840617</v>
       </c>
       <c r="E176" s="4">
-        <f>C176+_xlfn.FORECAST.ETS.CONFINT(A176,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>9.0751763771906901</v>
       </c>
       <c r="F176" s="5"/>
@@ -14732,15 +16132,15 @@
       </c>
       <c r="J176" s="5"/>
       <c r="K176" s="5">
-        <f>G176 - 1</f>
+        <f t="shared" si="9"/>
         <v>950.14805135552467</v>
       </c>
       <c r="L176" s="5">
-        <f>H176 - 1</f>
+        <f t="shared" si="10"/>
         <v>102.56123528147832</v>
       </c>
       <c r="M176" s="5">
-        <f>I176 - 1</f>
+        <f t="shared" si="11"/>
         <v>8734.7263858285787</v>
       </c>
     </row>
@@ -14749,15 +16149,15 @@
         <v>44070</v>
       </c>
       <c r="C177" s="3">
-        <f>_xlfn.FORECAST.ETS(A177,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>7.1455996544787359</v>
       </c>
       <c r="D177" s="4">
-        <f>C177-_xlfn.FORECAST.ETS.CONFINT(A177,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.8761272268911302</v>
       </c>
       <c r="E177" s="4">
-        <f>C177+_xlfn.FORECAST.ETS.CONFINT(A177,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>9.4150720820663416</v>
       </c>
       <c r="F177" s="5"/>
@@ -14775,15 +16175,15 @@
       </c>
       <c r="J177" s="5"/>
       <c r="K177" s="5">
-        <f>G177 - 1</f>
+        <f t="shared" si="9"/>
         <v>1267.5117659494451</v>
       </c>
       <c r="L177" s="5">
-        <f>H177 - 1</f>
+        <f t="shared" si="10"/>
         <v>130.12187404016478</v>
       </c>
       <c r="M177" s="5">
-        <f>I177 - 1</f>
+        <f t="shared" si="11"/>
         <v>12270.957765485256</v>
       </c>
     </row>
@@ -14792,15 +16192,15 @@
         <v>44071</v>
       </c>
       <c r="C178" s="3">
-        <f>_xlfn.FORECAST.ETS(A178,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.9909205693088934</v>
       </c>
       <c r="D178" s="4">
-        <f>C178-_xlfn.FORECAST.ETS.CONFINT(A178,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.6706459154772881</v>
       </c>
       <c r="E178" s="4">
-        <f>C178+_xlfn.FORECAST.ETS.CONFINT(A178,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>9.3111952231404977</v>
       </c>
       <c r="F178" s="5"/>
@@ -14818,15 +16218,15 @@
       </c>
       <c r="J178" s="5"/>
       <c r="K178" s="5">
-        <f>G178 - 1</f>
+        <f t="shared" si="9"/>
         <v>1085.7214182422711</v>
       </c>
       <c r="L178" s="5">
-        <f>H178 - 1</f>
+        <f t="shared" si="10"/>
         <v>105.76668241798463</v>
       </c>
       <c r="M178" s="5">
-        <f>I178 - 1</f>
+        <f t="shared" si="11"/>
         <v>11060.160786499824</v>
       </c>
     </row>
@@ -14835,15 +16235,15 @@
         <v>44072</v>
       </c>
       <c r="C179" s="3">
-        <f>_xlfn.FORECAST.ETS(A179,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>7.075502695069523</v>
       </c>
       <c r="D179" s="4">
-        <f>C179-_xlfn.FORECAST.ETS.CONFINT(A179,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.7053871887413639</v>
       </c>
       <c r="E179" s="4">
-        <f>C179+_xlfn.FORECAST.ETS.CONFINT(A179,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>9.4456182013976822</v>
       </c>
       <c r="F179" s="5"/>
@@ -14861,15 +16261,15 @@
       </c>
       <c r="J179" s="5"/>
       <c r="K179" s="5">
-        <f>G179 - 1</f>
+        <f t="shared" si="9"/>
         <v>1181.6378576220116</v>
       </c>
       <c r="L179" s="5">
-        <f>H179 - 1</f>
+        <f t="shared" si="10"/>
         <v>109.54107692309461</v>
       </c>
       <c r="M179" s="5">
-        <f>I179 - 1</f>
+        <f t="shared" si="11"/>
         <v>12651.602464275198</v>
       </c>
     </row>
@@ -14878,15 +16278,15 @@
         <v>44073</v>
       </c>
       <c r="C180" s="3">
-        <f>_xlfn.FORECAST.ETS(A180,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.8273016008212455</v>
       </c>
       <c r="D180" s="4">
-        <f>C180-_xlfn.FORECAST.ETS.CONFINT(A180,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.4082470308709967</v>
       </c>
       <c r="E180" s="4">
-        <f>C180+_xlfn.FORECAST.ETS.CONFINT(A180,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>9.2463561707714952</v>
       </c>
       <c r="F180" s="5"/>
@@ -14904,15 +16304,15 @@
       </c>
       <c r="J180" s="5"/>
       <c r="K180" s="5">
-        <f>G180 - 1</f>
+        <f t="shared" si="9"/>
         <v>921.69764364564446</v>
       </c>
       <c r="L180" s="5">
-        <f>H180 - 1</f>
+        <f t="shared" si="10"/>
         <v>81.125374003540102</v>
       </c>
       <c r="M180" s="5">
-        <f>I180 - 1</f>
+        <f t="shared" si="11"/>
         <v>10365.722245338282</v>
       </c>
     </row>
@@ -14921,15 +16321,15 @@
         <v>44074</v>
       </c>
       <c r="C181" s="3">
-        <f>_xlfn.FORECAST.ETS(A181,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>7.0623000901283222</v>
       </c>
       <c r="D181" s="4">
-        <f>C181-_xlfn.FORECAST.ETS.CONFINT(A181,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.5951544221875897</v>
       </c>
       <c r="E181" s="4">
-        <f>C181+_xlfn.FORECAST.ETS.CONFINT(A181,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>9.5294457580690555</v>
       </c>
       <c r="F181" s="5"/>
@@ -14947,15 +16347,15 @@
       </c>
       <c r="J181" s="5"/>
       <c r="K181" s="5">
-        <f>G181 - 1</f>
+        <f t="shared" si="9"/>
         <v>1166.1265771653602</v>
       </c>
       <c r="L181" s="5">
-        <f>H181 - 1</f>
+        <f t="shared" si="10"/>
         <v>98.003422692411391</v>
       </c>
       <c r="M181" s="5">
-        <f>I181 - 1</f>
+        <f t="shared" si="11"/>
         <v>13757.963176029085</v>
       </c>
     </row>
@@ -14964,15 +16364,15 @@
         <v>44075</v>
       </c>
       <c r="C182" s="3">
-        <f>_xlfn.FORECAST.ETS(A182,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>7.0373490019491225</v>
       </c>
       <c r="D182" s="4">
-        <f>C182-_xlfn.FORECAST.ETS.CONFINT(A182,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.5229113914470886</v>
       </c>
       <c r="E182" s="4">
-        <f>C182+_xlfn.FORECAST.ETS.CONFINT(A182,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>9.5517866124511563</v>
       </c>
       <c r="F182" s="5"/>
@@ -14990,15 +16390,15 @@
       </c>
       <c r="J182" s="5"/>
       <c r="K182" s="5">
-        <f>G182 - 1</f>
+        <f t="shared" si="9"/>
         <v>1137.3657974832963</v>
       </c>
       <c r="L182" s="5">
-        <f>H182 - 1</f>
+        <f t="shared" si="10"/>
         <v>91.103356939091512</v>
       </c>
       <c r="M182" s="5">
-        <f>I182 - 1</f>
+        <f t="shared" si="11"/>
         <v>14068.809526451379</v>
       </c>
     </row>
@@ -15007,15 +16407,15 @@
         <v>44076</v>
       </c>
       <c r="C183" s="3">
-        <f>_xlfn.FORECAST.ETS(A183,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>6.9911108275625731</v>
       </c>
       <c r="D183" s="4">
-        <f>C183-_xlfn.FORECAST.ETS.CONFINT(A183,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.4301360046390998</v>
       </c>
       <c r="E183" s="4">
-        <f>C183+_xlfn.FORECAST.ETS.CONFINT(A183,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>9.5520856504860454</v>
       </c>
       <c r="F183" s="5"/>
@@ -15033,15 +16433,15 @@
       </c>
       <c r="J183" s="5"/>
       <c r="K183" s="5">
-        <f>G183 - 1</f>
+        <f t="shared" si="9"/>
         <v>1085.9281956314708</v>
       </c>
       <c r="L183" s="5">
-        <f>H183 - 1</f>
+        <f t="shared" si="10"/>
         <v>82.942832748620745</v>
       </c>
       <c r="M183" s="5">
-        <f>I183 - 1</f>
+        <f t="shared" si="11"/>
         <v>14073.017563793683</v>
       </c>
     </row>
@@ -15050,15 +16450,15 @@
         <v>44077</v>
       </c>
       <c r="C184" s="3">
-        <f>_xlfn.FORECAST.ETS(A184,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>7.2790407519539331</v>
       </c>
       <c r="D184" s="4">
-        <f>C184-_xlfn.FORECAST.ETS.CONFINT(A184,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.6721261917756927</v>
       </c>
       <c r="E184" s="4">
-        <f>C184+_xlfn.FORECAST.ETS.CONFINT(A184,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>9.8859553121321735</v>
       </c>
       <c r="F184" s="5"/>
@@ -15076,15 +16476,15 @@
       </c>
       <c r="J184" s="5"/>
       <c r="K184" s="5">
-        <f>G184 - 1</f>
+        <f t="shared" si="9"/>
         <v>1448.5968350413555</v>
       </c>
       <c r="L184" s="5">
-        <f>H184 - 1</f>
+        <f t="shared" si="10"/>
         <v>105.9248436397007</v>
       </c>
       <c r="M184" s="5">
-        <f>I184 - 1</f>
+        <f t="shared" si="11"/>
         <v>19651.411101414975</v>
       </c>
     </row>
@@ -15093,15 +16493,15 @@
         <v>44078</v>
       </c>
       <c r="C185" s="3">
-        <f>_xlfn.FORECAST.ETS(A185,$B$2:$B$155,$A$2:$A$155,7,1)</f>
+        <f t="shared" si="6"/>
         <v>7.1243616667840906</v>
       </c>
       <c r="D185" s="4">
-        <f>C185-_xlfn.FORECAST.ETS.CONFINT(A185,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="7"/>
         <v>4.4723030315931744</v>
       </c>
       <c r="E185" s="4">
-        <f>C185+_xlfn.FORECAST.ETS.CONFINT(A185,$B$2:$B$155,$A$2:$A$155,0.95,7,1)</f>
+        <f t="shared" si="8"/>
         <v>9.7764203019750067</v>
       </c>
       <c r="F185" s="5"/>
@@ -15119,16 +16519,387 @@
       </c>
       <c r="J185" s="5"/>
       <c r="K185" s="5">
-        <f>G185 - 1</f>
+        <f t="shared" si="9"/>
         <v>1240.8551965709012</v>
       </c>
       <c r="L185" s="5">
-        <f>H185 - 1</f>
+        <f t="shared" si="10"/>
         <v>86.558140152408768</v>
       </c>
       <c r="M185" s="5">
-        <f>I185 - 1</f>
+        <f t="shared" si="11"/>
         <v>17612.488895101029</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>15</v>
+      </c>
+      <c r="B191" t="s">
+        <v>17</v>
+      </c>
+      <c r="C191" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A192" s="6">
+        <v>44049</v>
+      </c>
+      <c r="B192">
+        <v>726</v>
+      </c>
+      <c r="C192">
+        <f>K156</f>
+        <v>849.03401136390062</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="7">
+        <v>44050</v>
+      </c>
+      <c r="B193">
+        <v>809</v>
+      </c>
+      <c r="C193">
+        <f t="shared" ref="C193:C221" si="12">K157</f>
+        <v>727.21568642853219</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="6">
+        <v>44051</v>
+      </c>
+      <c r="B194">
+        <v>843</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="12"/>
+        <v>791.4896158553347</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="7">
+        <v>44052</v>
+      </c>
+      <c r="B195">
+        <v>624</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="12"/>
+        <v>617.30280203753739</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="6">
+        <v>44053</v>
+      </c>
+      <c r="B196">
+        <v>619</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="12"/>
+        <v>781.09545452243742</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="7">
+        <v>44054</v>
+      </c>
+      <c r="B197">
+        <v>551</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="12"/>
+        <v>761.82275908567067</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="6">
+        <v>44055</v>
+      </c>
+      <c r="B198">
+        <v>715</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="12"/>
+        <v>727.35424865421987</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="7">
+        <v>44056</v>
+      </c>
+      <c r="B199">
+        <v>811</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="12"/>
+        <v>970.37972672121498</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="6">
+        <v>44057</v>
+      </c>
+      <c r="B200">
+        <v>825</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="12"/>
+        <v>831.17135434622264</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="7">
+        <v>44058</v>
+      </c>
+      <c r="B201">
+        <v>778</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="12"/>
+        <v>904.62064127737551</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="6">
+        <v>44059</v>
+      </c>
+      <c r="B202">
+        <v>594</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="12"/>
+        <v>705.56797121622947</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="7">
+        <v>44060</v>
+      </c>
+      <c r="B203">
+        <v>595</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="12"/>
+        <v>892.74267232546788</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="6">
+        <v>44061</v>
+      </c>
+      <c r="B204">
+        <v>597</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="12"/>
+        <v>870.71872342898951</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="7">
+        <v>44062</v>
+      </c>
+      <c r="B205">
+        <v>735</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="12"/>
+        <v>831.32969687737261</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="6">
+        <v>44063</v>
+      </c>
+      <c r="B206">
+        <v>767</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="12"/>
+        <v>1109.0480226326322</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="7">
+        <v>44064</v>
+      </c>
+      <c r="B207">
+        <v>903</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="12"/>
+        <v>949.9671048021155</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="6">
+        <v>44065</v>
+      </c>
+      <c r="B208">
+        <v>900</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="12"/>
+        <v>1033.9015677921</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="7">
+        <v>44066</v>
+      </c>
+      <c r="B209">
+        <v>581</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="12"/>
+        <v>806.43334221265502</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="6">
+        <v>44067</v>
+      </c>
+      <c r="B210">
+        <v>548</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="12"/>
+        <v>1020.3279718179882</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="7">
+        <v>44068</v>
+      </c>
+      <c r="B211">
+        <v>763</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="12"/>
+        <v>995.16001715455468</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="6">
+        <v>44069</v>
+      </c>
+      <c r="B212">
+        <v>729</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="12"/>
+        <v>950.14805135552467</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="7">
+        <v>44070</v>
+      </c>
+      <c r="B213">
+        <v>887</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="12"/>
+        <v>1267.5117659494451</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="6">
+        <v>44071</v>
+      </c>
+      <c r="B214">
+        <v>791</v>
+      </c>
+      <c r="C214">
+        <f t="shared" si="12"/>
+        <v>1085.7214182422711</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="7">
+        <v>44072</v>
+      </c>
+      <c r="B215">
+        <v>759</v>
+      </c>
+      <c r="C215">
+        <f t="shared" si="12"/>
+        <v>1181.6378576220116</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="6">
+        <v>44073</v>
+      </c>
+      <c r="B216">
+        <v>631</v>
+      </c>
+      <c r="C216">
+        <f t="shared" si="12"/>
+        <v>921.69764364564446</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="7">
+        <v>44074</v>
+      </c>
+      <c r="B217">
+        <v>502</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="12"/>
+        <v>1166.1265771653602</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="6">
+        <v>44075</v>
+      </c>
+      <c r="B218">
+        <v>550</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="12"/>
+        <v>1137.3657974832963</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="7">
+        <v>44076</v>
+      </c>
+      <c r="B219">
+        <v>595</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="12"/>
+        <v>1085.9281956314708</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="6">
+        <v>44077</v>
+      </c>
+      <c r="B220">
+        <v>612</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="12"/>
+        <v>1448.5968350413555</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="7">
+        <v>44078</v>
+      </c>
+      <c r="B221">
+        <v>691</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="12"/>
+        <v>1240.8551965709012</v>
       </c>
     </row>
   </sheetData>
@@ -15137,8 +16908,9 @@
     <ignoredError sqref="G156:I156 G157:I185" calculatedColumn="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>